--- a/file/樓層參數_floor.xlsx
+++ b/file/樓層參數_floor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7934ECDB-E6C4-4A2E-A866-9D09E0DA2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B221F-187D-4EC6-A97D-83EF4CCFF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>樓層</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>每根每層續接</t>
+  </si>
+  <si>
+    <t>是否需耐震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上版厚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下版厚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -642,10 +654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811CD7BB-A081-45AE-A220-E39ED5F87A69}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -659,10 +671,11 @@
     <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -690,8 +703,17 @@
       <c r="I1" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -719,8 +741,17 @@
       <c r="I2" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -748,8 +779,17 @@
       <c r="I3" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -777,8 +817,17 @@
       <c r="I4" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -806,8 +855,17 @@
       <c r="I5" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -835,8 +893,17 @@
       <c r="I6" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -864,8 +931,17 @@
       <c r="I7" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -893,8 +969,17 @@
       <c r="I8" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -922,8 +1007,17 @@
       <c r="I9" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -951,8 +1045,17 @@
       <c r="I10" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1083,17 @@
       <c r="I11" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1009,8 +1121,17 @@
       <c r="I12" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1038,8 +1159,17 @@
       <c r="I13" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1197,17 @@
       <c r="I14" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1096,8 +1235,17 @@
       <c r="I15" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1107,8 +1255,11 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1118,8 +1269,11 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1129,8 +1283,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1140,8 +1297,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1151,8 +1311,11 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1162,8 +1325,11 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1173,8 +1339,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1184,8 +1353,11 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1195,8 +1367,11 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1206,8 +1381,11 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1217,8 +1395,11 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1228,8 +1409,11 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1239,8 +1423,11 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1250,8 +1437,11 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1261,8 +1451,11 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1272,8 +1465,11 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1283,8 +1479,11 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1294,8 +1493,11 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1305,8 +1507,11 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1316,8 +1521,11 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1327,8 +1535,11 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1338,8 +1549,11 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1349,8 +1563,11 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1360,8 +1577,11 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1371,8 +1591,11 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1382,8 +1605,11 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1393,8 +1619,11 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1404,8 +1633,11 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1415,8 +1647,11 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1426,8 +1661,11 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1437,8 +1675,11 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1448,8 +1689,11 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1459,8 +1703,11 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1470,8 +1717,11 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1481,8 +1731,11 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1492,8 +1745,11 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1503,8 +1759,11 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1514,8 +1773,11 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1525,8 +1787,11 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1536,8 +1801,11 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1547,8 +1815,11 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1558,8 +1829,11 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1569,8 +1843,11 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1580,8 +1857,11 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1591,8 +1871,11 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1602,8 +1885,11 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1613,8 +1899,11 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1624,8 +1913,11 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1635,8 +1927,11 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1646,8 +1941,11 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1657,8 +1955,11 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1668,8 +1969,11 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1679,8 +1983,11 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1690,8 +1997,11 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1701,8 +2011,11 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1712,8 +2025,11 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1723,8 +2039,11 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1734,8 +2053,11 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1745,8 +2067,11 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1756,8 +2081,11 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1767,8 +2095,11 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1778,8 +2109,11 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1789,8 +2123,11 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1800,8 +2137,11 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1811,8 +2151,11 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1822,8 +2165,11 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1833,8 +2179,11 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1844,8 +2193,11 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1855,8 +2207,11 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1866,8 +2221,11 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1877,8 +2235,11 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1888,8 +2249,11 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1899,8 +2263,11 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1910,8 +2277,11 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1921,8 +2291,11 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1932,8 +2305,11 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1943,8 +2319,11 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1954,8 +2333,11 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1965,8 +2347,11 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1976,8 +2361,11 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1987,8 +2375,11 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1998,8 +2389,11 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2009,8 +2403,11 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2020,8 +2417,11 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -2031,9 +2431,12 @@
       <c r="G100" s="3"/>
       <c r="H100" s="9"/>
       <c r="I100" s="10"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zjJlvAgqzKPyoWKbY0WYuSziDKZWaNi4/mOeEwwkJH1Vx70fDakeocA+tdD2+R1edRjM0PtABFVsCsVlPfwnbw==" saltValue="1/eNXgE2ux6Sc5N8sA+5VA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100" xr:uid="{0EAEA8F4-CFDD-41BA-8AF9-6D1C0A77A9EF}">

--- a/file/樓層參數_floor.xlsx
+++ b/file/樓層參數_floor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B221F-187D-4EC6-A97D-83EF4CCFF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5248C9B-A66E-45E1-9446-613F6BB09F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>樓層</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,11 +134,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上版厚</t>
+    <t>上版厚(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下版厚</t>
+    <t>下版厚(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +338,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,7 +669,7 @@
   <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -714,535 +726,535 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="14">
         <v>330</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="14">
         <v>280</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="14">
         <v>4200</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="14">
         <v>0.45</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="15">
         <v>0.2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14">
+        <v>15</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14">
+        <v>330</v>
+      </c>
+      <c r="C3" s="14">
+        <v>280</v>
+      </c>
+      <c r="D3" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="15">
         <v>0.2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="J3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="14">
+        <v>15</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14">
+        <v>330</v>
+      </c>
+      <c r="C4" s="14">
+        <v>280</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="15">
         <v>0.2</v>
       </c>
-      <c r="L2" s="3">
+      <c r="J4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="14">
+        <v>15</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14">
+        <v>330</v>
+      </c>
+      <c r="C5" s="14">
+        <v>280</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I5" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="J5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="14">
+        <v>15</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14">
         <v>330</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C6" s="14">
         <v>280</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D6" s="14">
         <v>4200</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H6" s="14">
         <v>0.45</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I6" s="15">
         <v>0.2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="14">
+        <v>15</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14">
+        <v>330</v>
+      </c>
+      <c r="C7" s="14">
+        <v>280</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="15">
         <v>0.2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="J7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="14">
+        <v>15</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14">
+        <v>330</v>
+      </c>
+      <c r="C8" s="14">
+        <v>280</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I8" s="15">
         <v>0.2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="J8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="14">
+        <v>15</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14">
+        <v>330</v>
+      </c>
+      <c r="C9" s="14">
+        <v>350</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I9" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>330</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="J9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="14">
+        <v>15</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <v>360</v>
+      </c>
+      <c r="C10" s="14">
+        <v>350</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="14">
+        <v>15</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>460</v>
+      </c>
+      <c r="C11" s="14">
+        <v>350</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="14">
+        <v>15</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>460</v>
+      </c>
+      <c r="C12" s="14">
+        <v>420</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="14">
+        <v>15</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
+        <v>320</v>
+      </c>
+      <c r="C13" s="14">
         <v>280</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D13" s="14">
         <v>4200</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H13" s="14">
         <v>0.45</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I13" s="15">
         <v>0.2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="14">
+        <v>15</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14">
+        <v>320</v>
+      </c>
+      <c r="C14" s="14">
+        <v>280</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I14" s="15">
         <v>0.2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="14">
+        <v>15</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="14">
+        <v>320</v>
+      </c>
+      <c r="C15" s="14">
+        <v>280</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="I15" s="15">
         <v>0.2</v>
       </c>
-      <c r="L4" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>330</v>
-      </c>
-      <c r="C5" s="3">
-        <v>280</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
-        <v>330</v>
-      </c>
-      <c r="C6" s="3">
-        <v>280</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>330</v>
-      </c>
-      <c r="C7" s="3">
-        <v>280</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>330</v>
-      </c>
-      <c r="C8" s="3">
-        <v>280</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>330</v>
-      </c>
-      <c r="C9" s="3">
-        <v>350</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>360</v>
-      </c>
-      <c r="C10" s="3">
-        <v>350</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>460</v>
-      </c>
-      <c r="C11" s="3">
-        <v>350</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3">
-        <v>460</v>
-      </c>
-      <c r="C12" s="3">
-        <v>420</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3">
-        <v>320</v>
-      </c>
-      <c r="C13" s="3">
-        <v>280</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3">
-        <v>320</v>
-      </c>
-      <c r="C14" s="3">
-        <v>280</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3">
-        <v>320</v>
-      </c>
-      <c r="C15" s="3">
-        <v>280</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4200</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.2</v>
+      <c r="J15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="14">
+        <v>20</v>
+      </c>
+      <c r="L15" s="14">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2442,7 +2454,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100" xr:uid="{0EAEA8F4-CFDD-41BA-8AF9-6D1C0A77A9EF}">
       <formula1>"隔根隔層續接,每根每層續接"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F194" xr:uid="{F8273361-8715-49E2-BEAC-8DEED4696369}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F194 J2:J15" xr:uid="{F8273361-8715-49E2-BEAC-8DEED4696369}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/樓層參數_floor.xlsx
+++ b/file/樓層參數_floor.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5248C9B-A66E-45E1-9446-613F6BB09F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE3A486-E313-4FD8-94F4-EE1C5BA42376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
   </bookViews>
   <sheets>
-    <sheet name="參數表" sheetId="1" r:id="rId1"/>
+    <sheet name="梁參數表" sheetId="3" r:id="rId1"/>
+    <sheet name="柱參數表" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
   <si>
     <t>樓層</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +140,10 @@
   </si>
   <si>
     <t>下版厚(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭接方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,12 +669,1548 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EF57B4-E89C-49BE-B3A4-93967803B29F}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14">
+        <v>330</v>
+      </c>
+      <c r="C2" s="14">
+        <v>280</v>
+      </c>
+      <c r="D2" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="14">
+        <v>15</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14">
+        <v>330</v>
+      </c>
+      <c r="C3" s="14">
+        <v>280</v>
+      </c>
+      <c r="D3" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="14">
+        <v>15</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14">
+        <v>330</v>
+      </c>
+      <c r="C4" s="14">
+        <v>280</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="14">
+        <v>15</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14">
+        <v>330</v>
+      </c>
+      <c r="C5" s="14">
+        <v>280</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="14">
+        <v>15</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14">
+        <v>330</v>
+      </c>
+      <c r="C6" s="14">
+        <v>280</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="14">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14">
+        <v>330</v>
+      </c>
+      <c r="C7" s="14">
+        <v>280</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="14">
+        <v>15</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14">
+        <v>330</v>
+      </c>
+      <c r="C8" s="14">
+        <v>280</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="14">
+        <v>15</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14">
+        <v>330</v>
+      </c>
+      <c r="C9" s="14">
+        <v>350</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14">
+        <v>15</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <v>360</v>
+      </c>
+      <c r="C10" s="14">
+        <v>350</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="14">
+        <v>15</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>460</v>
+      </c>
+      <c r="C11" s="14">
+        <v>350</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="14">
+        <v>15</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>460</v>
+      </c>
+      <c r="C12" s="14">
+        <v>420</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14">
+        <v>15</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14">
+        <v>320</v>
+      </c>
+      <c r="C13" s="14">
+        <v>280</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="14">
+        <v>15</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14">
+        <v>320</v>
+      </c>
+      <c r="C14" s="14">
+        <v>280</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="14">
+        <v>15</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="14">
+        <v>320</v>
+      </c>
+      <c r="C15" s="14">
+        <v>280</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="14">
+        <v>20</v>
+      </c>
+      <c r="J15" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H15" xr:uid="{F15255A1-ACF6-4FEB-9210-E318F5749BC8}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100" xr:uid="{73EC0521-B1F1-4E80-845D-2F3A90F98E65}">
+      <formula1>"隔根隔層續接,每根每層續接"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811CD7BB-A081-45AE-A220-E39ED5F87A69}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -682,12 +2223,12 @@
     <col min="6" max="6" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -710,22 +2251,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
@@ -747,23 +2276,11 @@
       <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="14">
-        <v>15</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
@@ -785,23 +2302,11 @@
       <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="14">
-        <v>15</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -823,23 +2328,11 @@
       <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="14">
-        <v>15</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -861,23 +2354,11 @@
       <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="14">
-        <v>15</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -899,23 +2380,11 @@
       <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="14">
-        <v>15</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -937,23 +2406,11 @@
       <c r="G7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="14">
-        <v>15</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -975,23 +2432,11 @@
       <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="14">
-        <v>15</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
@@ -1013,23 +2458,11 @@
       <c r="G9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="14">
-        <v>15</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -1051,23 +2484,11 @@
       <c r="G10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="14">
-        <v>15</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -1089,23 +2510,11 @@
       <c r="G11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="14">
-        <v>15</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1127,23 +2536,11 @@
       <c r="G12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="14">
-        <v>15</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
@@ -1165,23 +2562,11 @@
       <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="14">
-        <v>15</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -1203,23 +2588,11 @@
       <c r="G14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="14">
-        <v>15</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -1241,23 +2614,11 @@
       <c r="G15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="14">
-        <v>20</v>
-      </c>
-      <c r="L15" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1266,12 +2627,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1280,12 +2637,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1294,12 +2647,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1308,12 +2657,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1322,12 +2667,8 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1336,12 +2677,8 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1350,12 +2687,8 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1364,12 +2697,8 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1378,12 +2707,8 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1392,12 +2717,8 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1406,12 +2727,8 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1420,12 +2737,8 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1434,12 +2747,8 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1448,12 +2757,8 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1462,12 +2767,8 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1476,12 +2777,8 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1490,12 +2787,8 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1504,12 +2797,8 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1518,12 +2807,8 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1532,12 +2817,8 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1546,12 +2827,8 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1560,12 +2837,8 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1574,12 +2847,8 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1588,12 +2857,8 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1602,12 +2867,8 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1616,12 +2877,8 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1630,12 +2887,8 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1644,12 +2897,8 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1658,12 +2907,8 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1672,12 +2917,8 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1686,12 +2927,8 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1700,12 +2937,8 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1714,12 +2947,8 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1728,12 +2957,8 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1742,12 +2967,8 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1756,12 +2977,8 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1770,12 +2987,8 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1784,12 +2997,8 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1798,12 +3007,8 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1812,12 +3017,8 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1826,12 +3027,8 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1840,12 +3037,8 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1854,12 +3047,8 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1868,12 +3057,8 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1882,12 +3067,8 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1896,12 +3077,8 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1910,12 +3087,8 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1924,12 +3097,8 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1938,12 +3107,8 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1952,12 +3117,8 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1966,12 +3127,8 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1980,12 +3137,8 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1994,12 +3147,8 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2008,12 +3157,8 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2022,12 +3167,8 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2036,12 +3177,8 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2050,12 +3187,8 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2064,12 +3197,8 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2078,12 +3207,8 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2092,12 +3217,8 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2106,12 +3227,8 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2120,12 +3237,8 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2134,12 +3247,8 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2148,12 +3257,8 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2162,12 +3267,8 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2176,12 +3277,8 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2190,12 +3287,8 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2204,12 +3297,8 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2218,12 +3307,8 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2232,12 +3317,8 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2246,12 +3327,8 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2260,12 +3337,8 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2274,12 +3347,8 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2288,12 +3357,8 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2302,12 +3367,8 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2316,12 +3377,8 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2330,12 +3387,8 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2344,12 +3397,8 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2358,12 +3407,8 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2372,12 +3417,8 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2386,12 +3427,8 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2400,12 +3437,8 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2414,12 +3447,8 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2428,12 +3457,8 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -2442,10 +3467,6 @@
       <c r="F100" s="9"/>
       <c r="G100" s="3"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2454,7 +3475,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100" xr:uid="{0EAEA8F4-CFDD-41BA-8AF9-6D1C0A77A9EF}">
       <formula1>"隔根隔層續接,每根每層續接"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F194 J2:J15" xr:uid="{F8273361-8715-49E2-BEAC-8DEED4696369}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F194 J2:J15 H2:H15" xr:uid="{F8273361-8715-49E2-BEAC-8DEED4696369}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/樓層參數_floor.xlsx
+++ b/file/樓層參數_floor.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE3A486-E313-4FD8-94F4-EE1C5BA42376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCB773-9681-4A87-8091-70F34D379151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
   </bookViews>
   <sheets>
     <sheet name="梁參數表" sheetId="3" r:id="rId1"/>
     <sheet name="柱參數表" sheetId="1" r:id="rId2"/>
+    <sheet name="鋼筋資料表" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>樓層</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +146,96 @@
   </si>
   <si>
     <t>搭接方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋尺寸</t>
+    </r>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重量（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>直徑（cm）</t>
+  </si>
+  <si>
+    <t>截面積（cm²）</t>
+  </si>
+  <si>
+    <t>fy(kgf/cm2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,8 +267,42 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +315,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -292,13 +429,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,9 +625,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,10 +980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EF57B4-E89C-49BE-B3A4-93967803B29F}">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3481,4 +3792,251 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E724C1-A4D1-42FA-A620-BA5D6E57AEE6}">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.71</v>
+      </c>
+      <c r="E2" s="20">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.996</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.27</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1.2670000000000001</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1.556</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1.986</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1.905</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2.84</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2.2225000000000001</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3.87</v>
+      </c>
+      <c r="E6" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2.54</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5.0670000000000002</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="17">
+        <v>5.0709999999999997</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.8649999999999998</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6.45</v>
+      </c>
+      <c r="E8" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="17">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="C9" s="17">
+        <v>3.226</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8.1429999999999989</v>
+      </c>
+      <c r="E9" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17">
+        <v>7.9240000000000004</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3.5810000000000004</v>
+      </c>
+      <c r="D10" s="17">
+        <v>10.06</v>
+      </c>
+      <c r="E10" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17">
+        <v>9.6189999999999998</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3.81</v>
+      </c>
+      <c r="D11" s="17">
+        <v>12.19</v>
+      </c>
+      <c r="E11" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="17">
+        <v>11.41</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4.3</v>
+      </c>
+      <c r="D12" s="17">
+        <v>14.52</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="17">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5.7329999999999997</v>
+      </c>
+      <c r="D13" s="17">
+        <v>25.81</v>
+      </c>
+      <c r="E13" s="17">
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/file/樓層參數_floor.xlsx
+++ b/file/樓層參數_floor.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCB773-9681-4A87-8091-70F34D379151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F36F30-C430-4ABF-BE2C-0F11766EDEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9CE335EC-C0A2-415F-9097-B002E0FCB98C}"/>
   </bookViews>
   <sheets>
     <sheet name="梁參數表" sheetId="3" r:id="rId1"/>
     <sheet name="柱參數表" sheetId="1" r:id="rId2"/>
     <sheet name="鋼筋資料表" sheetId="4" r:id="rId3"/>
+    <sheet name="梁柱接頭表" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
   <si>
     <t>樓層</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,38 @@
   </si>
   <si>
     <t>fy(kgf/cm2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +691,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,9 +716,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -724,7 +756,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -830,7 +862,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -972,7 +1004,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2520,7 +2552,7 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4039,4 +4071,54 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D289436-B069-4A46-A104-FE5F6033C801}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>